--- a/中英文对照.xlsx
+++ b/中英文对照.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30100" windowHeight="20800"/>
+    <workbookView windowHeight="20800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>中文</t>
   </si>
@@ -221,6 +221,33 @@
   </si>
   <si>
     <t>点击登录</t>
+  </si>
+  <si>
+    <t>Click to sign in</t>
+  </si>
+  <si>
+    <t>已确认</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>已承认</t>
+  </si>
+  <si>
+    <t>Admitted</t>
+  </si>
+  <si>
+    <t>已申请</t>
+  </si>
+  <si>
+    <t>Applied</t>
+  </si>
+  <si>
+    <t>实际%d台</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -229,9 +256,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -260,6 +287,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +306,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -278,8 +321,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -294,32 +383,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,21 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -356,38 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +435,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,7 +519,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,157 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +636,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,22 +645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,17 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,147 +694,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1467,9 +1494,44 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/中英文对照.xlsx
+++ b/中英文对照.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="20800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>中文</t>
   </si>
@@ -248,19 +248,133 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>预计开始挖矿时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该商品已卖完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提币金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际到账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提币地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免责声明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你当前的代理等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可提奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated mining start time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The goods have been sold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award settlement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Working ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Withdrawal address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your current proxy level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Withdrawable award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acknowledgement of responsibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual coins to balance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,345 +390,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -622,251 +412,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -878,57 +426,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1190,23 +691,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="57.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="59.8125" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="57.09765625" customWidth="1"/>
+    <col min="2" max="2" width="59.796875" customWidth="1"/>
+    <col min="3" max="3" width="39.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1220,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1276,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1284,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1300,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1308,7 +809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1316,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1324,7 +825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1332,7 +833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1444,52 +945,52 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1534,8 +1035,128 @@
         <v>77</v>
       </c>
     </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>